--- a/assets/form_penilaian_sumberdaya_manusia.xlsx
+++ b/assets/form_penilaian_sumberdaya_manusia.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bsiuii/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\githubdownload\flutter_application_1\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F9D8D8C-F86E-7B46-889A-0AA1DC21F822}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDD254A7-BE2E-4B29-BA72-DE9AD699548C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16120" xr2:uid="{FD05E6C4-AD2B-9C40-9DEB-3E4631342333}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FD05E6C4-AD2B-9C40-9DEB-3E4631342333}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -508,13 +508,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E3E9FC4D-8050-6F44-B522-43B0D83BF861}">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="34" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -531,7 +531,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="84" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="66" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -546,7 +546,7 @@
       </c>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -561,7 +561,7 @@
       </c>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -576,7 +576,7 @@
       </c>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -591,7 +591,7 @@
       </c>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5" ht="56" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -606,7 +606,7 @@
       </c>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5" ht="42" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -621,7 +621,7 @@
       </c>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -636,7 +636,7 @@
       </c>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5" ht="56" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -651,7 +651,7 @@
       </c>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5" ht="56" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -666,7 +666,7 @@
       </c>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5" ht="56" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -681,7 +681,7 @@
       </c>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5" ht="42" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -696,7 +696,7 @@
       </c>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" ht="42" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -711,7 +711,7 @@
       </c>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>13</v>
       </c>
